--- a/processed_data/pop_density_residential_land_corr.xlsx
+++ b/processed_data/pop_density_residential_land_corr.xlsx
@@ -1151,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,113 +1175,113 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.90305333207040961</v>
-      </c>
-    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
-        <v>0.91568095825444973</v>
+        <v>0.90305333207040961</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0.25156707678272183</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.91568095825444973</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.17587371885111366</v>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.25156707678272183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>0.81869588487762046</v>
+        <v>0.17587371885111366</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.59106095286345828</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.81869588487762046</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0.17604186739458086</v>
+        <v>0.59106095286345828</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>0.38019064394263391</v>
+        <v>0.17604186739458086</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>9.3758204467828857E-2</v>
+        <v>0.38019064394263391</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>9.3758204467828857E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-0.36663879179974734</v>
       </c>
     </row>
